--- a/data/appointment_confirmations.xlsx
+++ b/data/appointment_confirmations.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Confirmations" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Confirmations" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,10 +541,8 @@
           <t>03/01/2004</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>8867478871</t>
-        </is>
+      <c r="E2" t="n">
+        <v>8867478871</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -600,6 +598,91 @@
         </is>
       </c>
       <c r="Q2" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CONF-20250905151854</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Arshad Hussain</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>P051</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>02/01/2004</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>9188747887</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ndaadhi18@gmail.com</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Dr. Lee</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Uptown Center</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Scheduled via Calendly</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>60</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Aetna</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>AET987654322</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Individual Plan</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>2025-09-05 15:18:54</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>Confirmed</t>
         </is>

--- a/data/appointment_confirmations.xlsx
+++ b/data/appointment_confirmations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,10 +624,8 @@
           <t>02/01/2004</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>9188747887</t>
-        </is>
+      <c r="E3" t="n">
+        <v>9188747887</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -683,6 +681,91 @@
         </is>
       </c>
       <c r="Q3" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CONF-20250905212112</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Adarsh S</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>P001</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>03/01/2004</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>9188674788</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ndaadhi18@gmail.com</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Dr. Vivek</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sparsh Hospital - Infantry Road</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>04:30</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>60</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Star Health</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>123456787</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Individual Plan</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2025-09-05 21:21:12</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>Confirmed</t>
         </is>
